--- a/datasets/covariate_data_16points.xlsx
+++ b/datasets/covariate_data_16points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\repos\Covariate_Tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\repos\Covariate_Tool\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1701C37A-9D02-4C95-952E-F15E74998BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC787DB-1FD1-4361-9F1C-6C9E92D93CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{E306A3B3-E968-484E-9853-F350328284C5}"/>
+    <workbookView xWindow="38292" yWindow="2580" windowWidth="17436" windowHeight="12204" activeTab="1" xr2:uid="{E306A3B3-E968-484E-9853-F350328284C5}"/>
   </bookViews>
   <sheets>
     <sheet name="DS1" sheetId="1" r:id="rId1"/>
@@ -34,19 +34,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
-    <t>cVec</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
-    <t>eVec</t>
+    <t>FC</t>
   </si>
   <si>
-    <t>fVec</t>
+    <t>C</t>
   </si>
   <si>
-    <t>FC</t>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -400,27 +400,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA58DA2-4B17-49DD-A384-32C5A179A21B}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="A18:E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -704,27 +704,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3724057A-E4DA-4229-B436-3ADE45F36CF0}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
